--- a/xls/物品表.xlsx
+++ b/xls/物品表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>物品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,35 +161,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.2在meta的其他行依次定义数据页签表头列名对应的字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 在meta定义列的首行定义sheet对应的输出表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.meta页签每一列定义一个数据页签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 每一个数据页签对应一个单独的表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1数据页签的首行需定义为表头 对各列名进行说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 各表头对应的输出字段名在meta中定义 其中前缀表明不同的类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.1 前缀#表明输出为数字 前缀$表明输出为字符串 前缀^为原始数据输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 数据页签其他行填入数据。其中如果有夹杂无效列(meta中未定义)则不影响</t>
+    <t>2.2 在meta每一列的其他行依次定义各数据页签表头字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 各数据页签的表头定义遵循列名=prefix+字段名的格式.prefix说明字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1 prefix:#表示数字 $表示字符串 ^表示原始文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 每一个数据页签对应一个单独的表，该表名在meta中定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 数据页签的首行定义表头 对各列名进行说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 表头对应的输出字段名在meta中定义 其中前缀表明不同的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 数据页签其他行填入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 工具只转换在meta中定义的表头字段，如果数据页签有其他列未在meta中定义则不被转出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 只有在meta中定义的数据页签才能被转出，未被定义的则不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.   meta页签按列区分，每一列定义一个数据页签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 在meta列的首行定义各数据页签对应的输出表名。格式为页签名=table名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +269,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,37 +642,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10405</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="E5">
-        <v>104</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>10405</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>10506</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>500</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>105</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -795,10 +810,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -813,12 +828,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -826,28 +841,43 @@
         <v>33</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
+      <c r="A7" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>38</v>
+      <c r="A8" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
     </row>
